--- a/VarexJSmallScaleEvaluation/Results/Inc/ALLINC.xlsx
+++ b/VarexJSmallScaleEvaluation/Results/Inc/ALLINC.xlsx
@@ -813,8 +813,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120103936"/>
-        <c:axId val="80857344"/>
+        <c:axId val="94741504"/>
+        <c:axId val="86616320"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -917,11 +917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120104960"/>
-        <c:axId val="80857920"/>
+        <c:axId val="94742528"/>
+        <c:axId val="86616896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120103936"/>
+        <c:axId val="94741504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80857344"/>
+        <c:crossAx val="86616320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80857344"/>
+        <c:axId val="86616320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +949,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120103936"/>
+        <c:crossAx val="94741504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80857920"/>
+        <c:axId val="86616896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +964,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120104960"/>
+        <c:crossAx val="94742528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="120104960"/>
+        <c:axId val="94742528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80857920"/>
+        <c:crossAx val="86616896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -988,7 +988,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1121,8 +1120,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83474944"/>
-        <c:axId val="80859648"/>
+        <c:axId val="89242112"/>
+        <c:axId val="86618624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1225,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120106496"/>
-        <c:axId val="80860224"/>
+        <c:axId val="94744064"/>
+        <c:axId val="86619200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83474944"/>
+        <c:axId val="89242112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80859648"/>
+        <c:crossAx val="86618624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1246,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80859648"/>
+        <c:axId val="86618624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,12 +1256,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83474944"/>
+        <c:crossAx val="89242112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80860224"/>
+        <c:axId val="86619200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,12 +1271,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120106496"/>
+        <c:crossAx val="94744064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="120106496"/>
+        <c:axId val="94744064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80860224"/>
+        <c:crossAx val="86619200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1296,7 +1295,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1358,304 +1356,304 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.5</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.5</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>125.5</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>129</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>139.5</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>143</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>150</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>153.5</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>157</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>164</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>167.5</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>171</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>178</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>181.5</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>185</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>192</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>195.5</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>199</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>206</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>209.5</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>213</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>220</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>223.5</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>227</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>234</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>237.5</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>241</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>248</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>251.5</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>255</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>262</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>265.5</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>269</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>276</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>279.5</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>283</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>290</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>293.5</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>297</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>304</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>307.5</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>311</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>318</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>321.5</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>325</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>332</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>335.5</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>339</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>346</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>349.5</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>353</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>360</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>363.5</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>367</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>374</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>377.5</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>381</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>388</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>391.5</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>395</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>402</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>405.5</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>409</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>416</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>419.5</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>423</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>430</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>433.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>437</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>444</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>447.5</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>451</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>458</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>461.5</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>465</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>472</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>475.5</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>479</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>486</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>489.5</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,8 +1670,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119805952"/>
-        <c:axId val="80861952"/>
+        <c:axId val="94640128"/>
+        <c:axId val="86620928"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2019,11 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119803904"/>
-        <c:axId val="80862528"/>
+        <c:axId val="94638080"/>
+        <c:axId val="86621504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119805952"/>
+        <c:axId val="94640128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80861952"/>
+        <c:crossAx val="86620928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2040,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80861952"/>
+        <c:axId val="86620928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,12 +2049,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119805952"/>
+        <c:crossAx val="94640128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80862528"/>
+        <c:axId val="86621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,12 +2064,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119803904"/>
+        <c:crossAx val="94638080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="119803904"/>
+        <c:axId val="94638080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80862528"/>
+        <c:crossAx val="86621504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2090,7 +2088,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4384,11 +4381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121582080"/>
-        <c:axId val="121538816"/>
+        <c:axId val="95475712"/>
+        <c:axId val="95306880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121582080"/>
+        <c:axId val="95475712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,7 +4414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121538816"/>
+        <c:crossAx val="95306880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4427,7 +4424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121538816"/>
+        <c:axId val="95306880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -4458,7 +4455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121582080"/>
+        <c:crossAx val="95475712"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6013,304 +6010,304 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.5</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.5</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>125.5</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>129</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>139.5</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>143</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>150</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>153.5</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>157</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>164</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>167.5</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>171</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>178</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>181.5</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>185</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>192</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>195.5</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>199</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>206</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>209.5</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>213</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>220</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>223.5</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>227</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>234</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>237.5</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>241</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>248</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>251.5</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>255</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>262</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>265.5</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>269</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>276</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>279.5</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>283</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>290</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>293.5</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>297</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>304</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>307.5</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>311</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>318</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>321.5</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>325</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>332</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>335.5</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>339</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>346</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>349.5</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>353</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>360</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>363.5</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>367</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>374</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>377.5</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>381</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>388</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>391.5</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>395</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>402</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>405.5</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>409</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>416</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>419.5</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>423</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>430</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>433.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>437</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>444</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>447.5</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>451</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>458</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>461.5</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>465</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>472</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>475.5</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>479</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>486</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>489.5</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6327,11 +6324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121581568"/>
-        <c:axId val="121541120"/>
+        <c:axId val="95477248"/>
+        <c:axId val="95309184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121581568"/>
+        <c:axId val="95477248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6360,7 +6357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121541120"/>
+        <c:crossAx val="95309184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6370,7 +6367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121541120"/>
+        <c:axId val="95309184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100000"/>
@@ -6401,7 +6398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121581568"/>
+        <c:crossAx val="95477248"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7953,10 +7950,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>21.5</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.5</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21</c:v>
@@ -7965,22 +7962,22 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.5</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21</c:v>
@@ -7989,22 +7986,22 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>23</c:v>
@@ -8025,235 +8022,235 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23</c:v>
+                  <c:v>24.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24</c:v>
+                  <c:v>25.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>24</c:v>
+                  <c:v>27.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24</c:v>
+                  <c:v>27.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25</c:v>
+                  <c:v>27.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25</c:v>
+                  <c:v>27.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>25.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>26</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>26</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>26</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>26</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26.5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>27.5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>27.5</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>27</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>27.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>27</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>27</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>27.5</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>28</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>29</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>29</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>29</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>29</c:v>
+                  <c:v>71.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>29</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>29</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>30</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>30</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>30</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>30</c:v>
+                  <c:v>74.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>30</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>30</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>30.5</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>31</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>39</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>39</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>39</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>39</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8391,11 +8388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121583104"/>
-        <c:axId val="121543424"/>
+        <c:axId val="89242624"/>
+        <c:axId val="95311488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121583104"/>
+        <c:axId val="89242624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8424,7 +8421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121543424"/>
+        <c:crossAx val="95311488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8434,7 +8431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121543424"/>
+        <c:axId val="95311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8464,7 +8461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121583104"/>
+        <c:crossAx val="89242624"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10071,15 +10068,15 @@
         <v>19</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" ref="E21:E31" ca="1" si="5">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="E21:E23" ca="1" si="5">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
         <v>42825.333333333336</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" ref="F21:F31" ca="1" si="6">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="F21:F23" ca="1" si="6">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
         <v>134</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ref="G21:G31" ca="1" si="7">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="G21:G23" ca="1" si="7">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
         <v>14680060</v>
       </c>
     </row>
@@ -13290,15 +13287,15 @@
         <v>100</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" ref="E102:E165" ca="1" si="11">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="E102" ca="1" si="11">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
         <v>2103</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" ref="F102:F165" ca="1" si="12">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="F102" ca="1" si="12">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
         <v>329.66666666666669</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" ref="G102:G165" ca="1" si="13">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="G102" ca="1" si="13">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
         <v>76201</v>
       </c>
     </row>
@@ -17596,15 +17593,15 @@
         <v>19</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" ref="E21:E60" ca="1" si="5">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="E21:E23" ca="1" si="5">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
         <v>29373.666666666668</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" ref="F21:F60" ca="1" si="6">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="F21:F23" ca="1" si="6">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
         <v>264</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ref="G21:G60" ca="1" si="7">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="G21:G23" ca="1" si="7">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
         <v>8388616</v>
       </c>
     </row>
@@ -20444,7 +20441,7 @@
   <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G2" sqref="G2:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20496,11 +20493,11 @@
         <v>680.66666666666663</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:G2" ca="1" si="1">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
-        <v>21.5</v>
+        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
+        <v>21.333333333333332</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
         <v>24</v>
       </c>
     </row>
@@ -20518,16 +20515,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E66" ca="1" si="2">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="E3:E66" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
         <v>696</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3" ca="1" si="3">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
-        <v>21.5</v>
+        <f t="shared" ref="F3:F66" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
+        <v>21.333333333333332</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3" ca="1" si="4">AVERAGE(OFFSET(C$2,(ROW()-2)*2,0,2))</f>
-        <v>27.5</v>
+        <f t="shared" ref="G3:G66" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -20544,16 +20541,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>683</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>683</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:G17" ca="1" si="5">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
         <v>21</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -20570,16 +20567,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>663.33333333333337</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>663.33333333333337</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -20596,16 +20593,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>666.66666666666663</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>41.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -20622,16 +20619,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>664.33333333333337</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>664.33333333333337</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -20648,16 +20645,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>671.33333333333337</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>671.33333333333337</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21.5</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -20674,16 +20671,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>665.33333333333337</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>665.33333333333337</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>55.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -20700,16 +20697,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>668.33333333333337</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>668.33333333333337</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -20726,16 +20723,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>670.33333333333337</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>670.33333333333337</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -20752,16 +20749,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>668.66666666666663</v>
+      </c>
+      <c r="F12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>668.66666666666663</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>69.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -20778,16 +20775,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>667.66666666666663</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -20804,16 +20801,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>673.33333333333337</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>673.33333333333337</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -20830,16 +20827,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>674.66666666666663</v>
+      </c>
+      <c r="F15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>674.66666666666663</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>83.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -20856,16 +20853,16 @@
         <v>15</v>
       </c>
       <c r="E16" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>678.33333333333337</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>678.33333333333337</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -20882,16 +20879,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>678.33333333333337</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>678.33333333333337</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -20908,16 +20905,16 @@
         <v>17</v>
       </c>
       <c r="E18" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>679</v>
+      </c>
+      <c r="F18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>679</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" ref="F18:G22" ca="1" si="6">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>97.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -20934,16 +20931,16 @@
         <v>18</v>
       </c>
       <c r="E19" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>686.33333333333337</v>
+      </c>
+      <c r="F19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>686.33333333333337</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -20960,16 +20957,16 @@
         <v>19</v>
       </c>
       <c r="E20" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>684</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>684</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" ca="1" si="6"/>
         <v>23</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -20986,16 +20983,16 @@
         <v>20</v>
       </c>
       <c r="E21" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>689</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>689</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" ca="1" si="6"/>
         <v>23</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>111.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -21012,16 +21009,16 @@
         <v>21</v>
       </c>
       <c r="E22" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>689.66666666666663</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>689.66666666666663</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" ca="1" si="6"/>
         <v>23</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -21038,16 +21035,16 @@
         <v>22</v>
       </c>
       <c r="E23" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>711.66666666666663</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>711.66666666666663</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" ref="F23:G86" ca="1" si="7">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
         <v>23</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>122</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -21064,16 +21061,16 @@
         <v>23</v>
       </c>
       <c r="E24" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>697.66666666666663</v>
+      </c>
+      <c r="F24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>697.66666666666663</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" ca="1" si="7"/>
         <v>23</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>125.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -21090,16 +21087,16 @@
         <v>24</v>
       </c>
       <c r="E25" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>702</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>702</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" ca="1" si="7"/>
         <v>23</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>129</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -21116,16 +21113,16 @@
         <v>25</v>
       </c>
       <c r="E26" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>702.33333333333337</v>
+      </c>
+      <c r="F26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>702.33333333333337</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -21142,16 +21139,16 @@
         <v>26</v>
       </c>
       <c r="E27" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>716</v>
+      </c>
+      <c r="F27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>716</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>139.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -21168,16 +21165,16 @@
         <v>27</v>
       </c>
       <c r="E28" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>713.66666666666663</v>
+      </c>
+      <c r="F28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>713.66666666666663</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>143</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -21194,16 +21191,16 @@
         <v>28</v>
       </c>
       <c r="E29" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>718.33333333333337</v>
+      </c>
+      <c r="F29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>718.33333333333337</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>150</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -21220,16 +21217,16 @@
         <v>29</v>
       </c>
       <c r="E30" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>721</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>721</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>153.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -21246,16 +21243,16 @@
         <v>30</v>
       </c>
       <c r="E31" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>727.66666666666663</v>
+      </c>
+      <c r="F31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>727.66666666666663</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -21272,16 +21269,16 @@
         <v>31</v>
       </c>
       <c r="E32" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>738.33333333333337</v>
+      </c>
+      <c r="F32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>738.33333333333337</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>164</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -21298,16 +21295,16 @@
         <v>32</v>
       </c>
       <c r="E33" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="F33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>750</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>167.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -21324,16 +21321,16 @@
         <v>33</v>
       </c>
       <c r="E34" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>749.66666666666663</v>
+      </c>
+      <c r="F34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>749.66666666666663</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>171</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -21350,16 +21347,16 @@
         <v>34</v>
       </c>
       <c r="E35" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>759</v>
+      </c>
+      <c r="F35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>759</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>178</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -21376,16 +21373,16 @@
         <v>35</v>
       </c>
       <c r="E36" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>767.66666666666663</v>
+      </c>
+      <c r="F36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>767.66666666666663</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>181.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -21402,16 +21399,16 @@
         <v>36</v>
       </c>
       <c r="E37" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>778.66666666666663</v>
+      </c>
+      <c r="F37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>778.66666666666663</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>185</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -21428,16 +21425,16 @@
         <v>37</v>
       </c>
       <c r="E38" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>784</v>
+      </c>
+      <c r="F38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>784</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>192</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -21454,16 +21451,16 @@
         <v>38</v>
       </c>
       <c r="E39" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>830</v>
+      </c>
+      <c r="F39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>830</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>195.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -21480,16 +21477,16 @@
         <v>39</v>
       </c>
       <c r="E40" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>875.33333333333337</v>
+      </c>
+      <c r="F40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>875.33333333333337</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>199</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -21506,16 +21503,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>927.33333333333337</v>
+      </c>
+      <c r="F41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>927.33333333333337</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>206</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -21532,16 +21529,16 @@
         <v>41</v>
       </c>
       <c r="E42" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>979.33333333333337</v>
+      </c>
+      <c r="F42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>979.33333333333337</v>
-      </c>
-      <c r="F42" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>209.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -21558,16 +21555,16 @@
         <v>42</v>
       </c>
       <c r="E43" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1033.3333333333333</v>
+      </c>
+      <c r="F43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1033.3333333333333</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>213</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -21584,16 +21581,16 @@
         <v>43</v>
       </c>
       <c r="E44" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1082</v>
+      </c>
+      <c r="F44" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1082</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -21610,16 +21607,16 @@
         <v>44</v>
       </c>
       <c r="E45" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1149.6666666666667</v>
+      </c>
+      <c r="F45" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1149.6666666666667</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>223.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -21636,16 +21633,16 @@
         <v>45</v>
       </c>
       <c r="E46" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1175.6666666666667</v>
+      </c>
+      <c r="F46" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1175.6666666666667</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>227</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -21662,16 +21659,16 @@
         <v>46</v>
       </c>
       <c r="E47" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1184</v>
+      </c>
+      <c r="F47" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1184</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>234</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -21688,16 +21685,16 @@
         <v>47</v>
       </c>
       <c r="E48" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1193.6666666666667</v>
+      </c>
+      <c r="F48" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1193.6666666666667</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>237.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -21714,16 +21711,16 @@
         <v>48</v>
       </c>
       <c r="E49" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1187.6666666666667</v>
+      </c>
+      <c r="F49" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1187.6666666666667</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>241</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -21740,16 +21737,16 @@
         <v>49</v>
       </c>
       <c r="E50" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1188</v>
+      </c>
+      <c r="F50" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1188</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>248</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -21766,16 +21763,16 @@
         <v>50</v>
       </c>
       <c r="E51" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1181</v>
+      </c>
+      <c r="F51" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1181</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>251.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -21792,16 +21789,16 @@
         <v>51</v>
       </c>
       <c r="E52" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1209.3333333333333</v>
+      </c>
+      <c r="F52" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1209.3333333333333</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>255</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -21818,16 +21815,16 @@
         <v>52</v>
       </c>
       <c r="E53" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1181</v>
+      </c>
+      <c r="F53" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1181</v>
-      </c>
-      <c r="F53" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>262</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -21844,16 +21841,16 @@
         <v>53</v>
       </c>
       <c r="E54" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1183.3333333333333</v>
+      </c>
+      <c r="F54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1183.3333333333333</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>265.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -21870,16 +21867,16 @@
         <v>54</v>
       </c>
       <c r="E55" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1178.3333333333333</v>
+      </c>
+      <c r="F55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1178.3333333333333</v>
-      </c>
-      <c r="F55" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>269</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -21896,16 +21893,16 @@
         <v>55</v>
       </c>
       <c r="E56" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1223.3333333333333</v>
+      </c>
+      <c r="F56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1223.3333333333333</v>
-      </c>
-      <c r="F56" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>276</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -21922,16 +21919,16 @@
         <v>56</v>
       </c>
       <c r="E57" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1223.3333333333333</v>
+      </c>
+      <c r="F57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1223.3333333333333</v>
-      </c>
-      <c r="F57" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>279.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -21948,16 +21945,16 @@
         <v>57</v>
       </c>
       <c r="E58" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1195.6666666666667</v>
+      </c>
+      <c r="F58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1195.6666666666667</v>
-      </c>
-      <c r="F58" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>283</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -21974,16 +21971,16 @@
         <v>58</v>
       </c>
       <c r="E59" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1222.6666666666667</v>
+      </c>
+      <c r="F59" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1222.6666666666667</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>290</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -22000,16 +21997,16 @@
         <v>59</v>
       </c>
       <c r="E60" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1222.6666666666667</v>
+      </c>
+      <c r="F60" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1222.6666666666667</v>
-      </c>
-      <c r="F60" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>293.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -22026,16 +22023,16 @@
         <v>60</v>
       </c>
       <c r="E61" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1206.3333333333333</v>
+      </c>
+      <c r="F61" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1206.3333333333333</v>
-      </c>
-      <c r="F61" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>297</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -22052,16 +22049,16 @@
         <v>61</v>
       </c>
       <c r="E62" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1201.6666666666667</v>
+      </c>
+      <c r="F62" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1201.6666666666667</v>
-      </c>
-      <c r="F62" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>304</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -22078,16 +22075,16 @@
         <v>62</v>
       </c>
       <c r="E63" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1205.3333333333333</v>
+      </c>
+      <c r="F63" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1205.3333333333333</v>
-      </c>
-      <c r="F63" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>307.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -22104,16 +22101,16 @@
         <v>63</v>
       </c>
       <c r="E64" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1214.6666666666667</v>
+      </c>
+      <c r="F64" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1214.6666666666667</v>
-      </c>
-      <c r="F64" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>311</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -22130,16 +22127,16 @@
         <v>64</v>
       </c>
       <c r="E65" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1294.3333333333333</v>
+      </c>
+      <c r="F65" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1294.3333333333333</v>
-      </c>
-      <c r="F65" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>318</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -22156,16 +22153,16 @@
         <v>65</v>
       </c>
       <c r="E66" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1302.3333333333333</v>
+      </c>
+      <c r="F66" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1302.3333333333333</v>
-      </c>
-      <c r="F66" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>321.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -22182,16 +22179,16 @@
         <v>66</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" ref="E67:E102" ca="1" si="8">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="E67:E102" ca="1" si="4">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
         <v>1301</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ref="F67:F102" ca="1" si="5">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
+        <v>39</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>325</v>
+        <f t="shared" ref="G67:G102" ca="1" si="6">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -22208,16 +22205,16 @@
         <v>67</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1271.6666666666667</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>39</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>332</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -22234,16 +22231,16 @@
         <v>68</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1339</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>39</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>335.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -22260,16 +22257,16 @@
         <v>69</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1244</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>339</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -22286,16 +22283,16 @@
         <v>70</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1287.6666666666667</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>346</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -22312,16 +22309,16 @@
         <v>71</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1297</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>349.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -22338,16 +22335,16 @@
         <v>72</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1312.6666666666667</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>353</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -22364,16 +22361,16 @@
         <v>73</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1376.3333333333333</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>360</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -22390,16 +22387,16 @@
         <v>74</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1375.6666666666667</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>363.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -22416,16 +22413,16 @@
         <v>75</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1380.6666666666667</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>367</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>542</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -22442,16 +22439,16 @@
         <v>76</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1392.6666666666667</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>374</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -22468,16 +22465,16 @@
         <v>77</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1462.6666666666667</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>377.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -22494,16 +22491,16 @@
         <v>78</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1427.6666666666667</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>381</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -22520,16 +22517,16 @@
         <v>79</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1401.3333333333333</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>388</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -22546,16 +22543,16 @@
         <v>80</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1419.3333333333333</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>391.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -22572,16 +22569,16 @@
         <v>81</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1399</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>395</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -22598,16 +22595,16 @@
         <v>82</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1358.6666666666667</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>402</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -22624,16 +22621,16 @@
         <v>83</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1426.6666666666667</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>405.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -22650,16 +22647,16 @@
         <v>84</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1563</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>71.666666666666671</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>409</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -22676,16 +22673,16 @@
         <v>85</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1480</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" ref="G86:G102" ca="1" si="9">AVERAGE(OFFSET(C$2,(ROW()-2)*2,0,2))</f>
-        <v>416</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -22702,16 +22699,16 @@
         <v>86</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1573</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" ref="F87:F102" ca="1" si="10">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>419.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -22728,16 +22725,16 @@
         <v>87</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1570.3333333333333</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>423</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -22754,16 +22751,16 @@
         <v>88</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1543.3333333333333</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>430</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -22780,16 +22777,16 @@
         <v>89</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1580.3333333333333</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>433.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>640</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -22806,16 +22803,16 @@
         <v>90</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1596.6666666666667</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>437</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>647</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -22832,16 +22829,16 @@
         <v>91</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1589.6666666666667</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>444</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>654</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -22858,16 +22855,16 @@
         <v>92</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1572.3333333333333</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>74.666666666666671</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>447.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>661</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -22884,16 +22881,16 @@
         <v>93</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1625</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>451</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -22910,16 +22907,16 @@
         <v>94</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1611.6666666666667</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>458</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>675</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -22936,16 +22933,16 @@
         <v>95</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1591.6666666666667</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>461.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>682</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -22962,16 +22959,16 @@
         <v>96</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1724.3333333333333</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>465</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>689</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -22988,16 +22985,16 @@
         <v>97</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1790.6666666666667</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>472</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -23014,16 +23011,16 @@
         <v>98</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1764.3333333333333</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>475.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>703</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -23040,16 +23037,16 @@
         <v>99</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1809.6666666666667</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>479</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>710</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -23066,16 +23063,16 @@
         <v>100</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1760.3333333333333</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>486</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>717</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -23092,16 +23089,16 @@
         <v>101</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1786.3333333333333</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>489.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -28965,7 +28962,7 @@
   <dimension ref="A1:P694"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29070,7 +29067,7 @@
       </c>
       <c r="L2" s="1">
         <f ca="1">VarexJ!F2</f>
-        <v>21.5</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="M2" s="2">
         <f ca="1">'JPF-Core'!F2</f>
@@ -29118,7 +29115,7 @@
       </c>
       <c r="H3" s="1">
         <f ca="1">VarexJ!G3</f>
-        <v>27.5</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2">
         <f ca="1">'JPF-Core'!G3</f>
@@ -29134,7 +29131,7 @@
       </c>
       <c r="L3" s="1">
         <f ca="1">VarexJ!F3</f>
-        <v>21.5</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="M3" s="2">
         <f ca="1">'JPF-Core'!F3</f>
@@ -29182,7 +29179,7 @@
       </c>
       <c r="H4" s="1">
         <f ca="1">VarexJ!G4</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2">
         <f ca="1">'JPF-Core'!G4</f>
@@ -29246,7 +29243,7 @@
       </c>
       <c r="H5" s="1">
         <f ca="1">VarexJ!G5</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2">
         <f ca="1">'JPF-Core'!G5</f>
@@ -29310,7 +29307,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">VarexJ!G6</f>
-        <v>41.5</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2">
         <f ca="1">'JPF-Core'!G6</f>
@@ -29326,7 +29323,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1">VarexJ!F6</f>
-        <v>21</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="M6" s="2">
         <f ca="1">'JPF-Core'!F6</f>
@@ -29371,7 +29368,7 @@
       </c>
       <c r="H7" s="1">
         <f ca="1">VarexJ!G7</f>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2">
         <f ca="1">'JPF-Core'!G7</f>
@@ -29387,7 +29384,7 @@
       </c>
       <c r="L7" s="1">
         <f ca="1">VarexJ!F7</f>
-        <v>21</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="M7" s="2">
         <f ca="1">'JPF-Core'!F7</f>
@@ -29432,7 +29429,7 @@
       </c>
       <c r="H8" s="1">
         <f ca="1">VarexJ!G8</f>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2">
         <f ca="1">'JPF-Core'!G8</f>
@@ -29448,7 +29445,7 @@
       </c>
       <c r="L8" s="1">
         <f ca="1">VarexJ!F8</f>
-        <v>21.5</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="M8" s="2">
         <f ca="1">'JPF-Core'!F8</f>
@@ -29493,7 +29490,7 @@
       </c>
       <c r="H9" s="1">
         <f ca="1">VarexJ!G9</f>
-        <v>55.5</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2">
         <f ca="1">'JPF-Core'!G9</f>
@@ -29554,7 +29551,7 @@
       </c>
       <c r="H10" s="1">
         <f ca="1">VarexJ!G10</f>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2">
         <f ca="1">'JPF-Core'!G10</f>
@@ -29570,7 +29567,7 @@
       </c>
       <c r="L10" s="1">
         <f ca="1">VarexJ!F10</f>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="M10" s="2">
         <f ca="1">'JPF-Core'!F10</f>
@@ -29615,7 +29612,7 @@
       </c>
       <c r="H11" s="1">
         <f ca="1">VarexJ!G11</f>
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2">
         <f ca="1">'JPF-Core'!G11</f>
@@ -29631,7 +29628,7 @@
       </c>
       <c r="L11" s="1">
         <f ca="1">VarexJ!F11</f>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="M11" s="2">
         <f ca="1">'JPF-Core'!F11</f>
@@ -29676,7 +29673,7 @@
       </c>
       <c r="H12" s="1">
         <f ca="1">VarexJ!G12</f>
-        <v>69.5</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2">
         <f ca="1">'JPF-Core'!G12</f>
@@ -29737,7 +29734,7 @@
       </c>
       <c r="H13" s="1">
         <f ca="1">VarexJ!G13</f>
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2">
         <f ca="1">'JPF-Core'!G13</f>
@@ -29798,7 +29795,7 @@
       </c>
       <c r="H14" s="1">
         <f ca="1">VarexJ!G14</f>
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2">
         <f ca="1">'JPF-Core'!G14</f>
@@ -29814,7 +29811,7 @@
       </c>
       <c r="L14" s="1">
         <f ca="1">VarexJ!F14</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M14" s="2">
         <f ca="1">'JPF-Core'!F14</f>
@@ -29859,7 +29856,7 @@
       </c>
       <c r="H15" s="1">
         <f ca="1">VarexJ!G15</f>
-        <v>83.5</v>
+        <v>115</v>
       </c>
       <c r="I15" s="2">
         <f ca="1">'JPF-Core'!G15</f>
@@ -29875,7 +29872,7 @@
       </c>
       <c r="L15" s="1">
         <f ca="1">VarexJ!F15</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="2">
         <f ca="1">'JPF-Core'!F15</f>
@@ -29920,7 +29917,7 @@
       </c>
       <c r="H16" s="1">
         <f ca="1">VarexJ!G16</f>
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="I16" s="2">
         <f ca="1">'JPF-Core'!G16</f>
@@ -29936,7 +29933,7 @@
       </c>
       <c r="L16" s="1">
         <f ca="1">VarexJ!F16</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M16" s="2">
         <f ca="1">'JPF-Core'!F16</f>
@@ -29981,7 +29978,7 @@
       </c>
       <c r="H17" s="1">
         <f ca="1">VarexJ!G17</f>
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="I17" s="2">
         <f ca="1">'JPF-Core'!G17</f>
@@ -29997,7 +29994,7 @@
       </c>
       <c r="L17" s="1">
         <f ca="1">VarexJ!F17</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M17" s="2">
         <f ca="1">'JPF-Core'!F17</f>
@@ -30042,7 +30039,7 @@
       </c>
       <c r="H18" s="1">
         <f ca="1">VarexJ!G18</f>
-        <v>97.5</v>
+        <v>136</v>
       </c>
       <c r="I18" s="2">
         <f ca="1">'JPF-Core'!G18</f>
@@ -30058,7 +30055,7 @@
       </c>
       <c r="L18" s="1">
         <f ca="1">VarexJ!F18</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="2">
         <f ca="1">'JPF-Core'!F18</f>
@@ -30103,7 +30100,7 @@
       </c>
       <c r="H19" s="1">
         <f ca="1">VarexJ!G19</f>
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="I19" s="2">
         <f ca="1">'JPF-Core'!G19</f>
@@ -30119,7 +30116,7 @@
       </c>
       <c r="L19" s="1">
         <f ca="1">VarexJ!F19</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M19" s="2">
         <f ca="1">'JPF-Core'!F19</f>
@@ -30164,7 +30161,7 @@
       </c>
       <c r="H20" s="1">
         <f ca="1">VarexJ!G20</f>
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="I20" s="2">
         <f ca="1">'JPF-Core'!G20</f>
@@ -30225,7 +30222,7 @@
       </c>
       <c r="H21" s="1">
         <f ca="1">VarexJ!G21</f>
-        <v>111.5</v>
+        <v>157</v>
       </c>
       <c r="I21" s="2">
         <f ca="1">'JPF-Core'!G21</f>
@@ -30286,7 +30283,7 @@
       </c>
       <c r="H22" s="1">
         <f ca="1">VarexJ!G22</f>
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="I22" s="2">
         <f ca="1">'JPF-Core'!G22</f>
@@ -30347,7 +30344,7 @@
       </c>
       <c r="H23" s="1">
         <f ca="1">VarexJ!G23</f>
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="I23" s="2">
         <f ca="1">'JPF-Core'!G23</f>
@@ -30402,7 +30399,7 @@
       </c>
       <c r="H24" s="1">
         <f ca="1">VarexJ!G24</f>
-        <v>125.5</v>
+        <v>178</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -30445,7 +30442,7 @@
       </c>
       <c r="H25" s="1">
         <f ca="1">VarexJ!G25</f>
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -30488,7 +30485,7 @@
       </c>
       <c r="H26" s="1">
         <f ca="1">VarexJ!G26</f>
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -30498,7 +30495,7 @@
       </c>
       <c r="L26" s="1">
         <f ca="1">VarexJ!F26</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="1"/>
@@ -30531,7 +30528,7 @@
       </c>
       <c r="H27" s="1">
         <f ca="1">VarexJ!G27</f>
-        <v>139.5</v>
+        <v>199</v>
       </c>
       <c r="K27" s="12">
         <f ca="1">'JPF-BDD'!F27</f>
@@ -30539,7 +30536,7 @@
       </c>
       <c r="L27" s="1">
         <f ca="1">VarexJ!F27</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="1"/>
@@ -30572,7 +30569,7 @@
       </c>
       <c r="H28" s="1">
         <f ca="1">VarexJ!G28</f>
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="K28" s="12">
         <f ca="1">'JPF-BDD'!F28</f>
@@ -30580,7 +30577,7 @@
       </c>
       <c r="L28" s="1">
         <f ca="1">VarexJ!F28</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="1"/>
@@ -30613,7 +30610,7 @@
       </c>
       <c r="H29" s="1">
         <f ca="1">VarexJ!G29</f>
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="K29" s="12">
         <f ca="1">'JPF-BDD'!F29</f>
@@ -30621,7 +30618,7 @@
       </c>
       <c r="L29" s="1">
         <f ca="1">VarexJ!F29</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="1"/>
@@ -30654,7 +30651,7 @@
       </c>
       <c r="H30" s="1">
         <f ca="1">VarexJ!G30</f>
-        <v>153.5</v>
+        <v>220</v>
       </c>
       <c r="K30" s="12">
         <f ca="1">'JPF-BDD'!F30</f>
@@ -30662,7 +30659,7 @@
       </c>
       <c r="L30" s="1">
         <f ca="1">VarexJ!F30</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="1"/>
@@ -30695,7 +30692,7 @@
       </c>
       <c r="H31" s="1">
         <f ca="1">VarexJ!G31</f>
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="K31" s="12">
         <f ca="1">'JPF-BDD'!F31</f>
@@ -30703,7 +30700,7 @@
       </c>
       <c r="L31" s="1">
         <f ca="1">VarexJ!F31</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="1"/>
@@ -30736,7 +30733,7 @@
       </c>
       <c r="H32" s="1">
         <f ca="1">VarexJ!G32</f>
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="K32" s="12">
         <f ca="1">'JPF-BDD'!F32</f>
@@ -30744,7 +30741,7 @@
       </c>
       <c r="L32" s="1">
         <f ca="1">VarexJ!F32</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O32" s="1">
         <f ca="1">SPLat!F32</f>
@@ -30772,7 +30769,7 @@
       </c>
       <c r="H33" s="1">
         <f ca="1">VarexJ!G33</f>
-        <v>167.5</v>
+        <v>241</v>
       </c>
       <c r="K33" s="12">
         <f ca="1">'JPF-BDD'!F33</f>
@@ -30780,7 +30777,7 @@
       </c>
       <c r="L33" s="1">
         <f ca="1">VarexJ!F33</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O33" s="1"/>
     </row>
@@ -30805,7 +30802,7 @@
       </c>
       <c r="H34" s="1">
         <f ca="1">VarexJ!G34</f>
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="K34" s="12">
         <f ca="1">'JPF-BDD'!F34</f>
@@ -30813,7 +30810,7 @@
       </c>
       <c r="L34" s="1">
         <f ca="1">VarexJ!F34</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -30837,7 +30834,7 @@
       </c>
       <c r="H35" s="1">
         <f ca="1">VarexJ!G35</f>
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="K35" s="12">
         <f ca="1">'JPF-BDD'!F35</f>
@@ -30845,7 +30842,7 @@
       </c>
       <c r="L35" s="1">
         <f ca="1">VarexJ!F35</f>
-        <v>23</v>
+        <v>24.666666666666668</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -30869,7 +30866,7 @@
       </c>
       <c r="H36" s="1">
         <f ca="1">VarexJ!G36</f>
-        <v>181.5</v>
+        <v>262</v>
       </c>
       <c r="K36" s="12">
         <f ca="1">'JPF-BDD'!F36</f>
@@ -30877,7 +30874,7 @@
       </c>
       <c r="L36" s="1">
         <f ca="1">VarexJ!F36</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -30901,7 +30898,7 @@
       </c>
       <c r="H37" s="1">
         <f ca="1">VarexJ!G37</f>
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="K37" s="12">
         <f ca="1">'JPF-BDD'!F37</f>
@@ -30909,7 +30906,7 @@
       </c>
       <c r="L37" s="1">
         <f ca="1">VarexJ!F37</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -30933,7 +30930,7 @@
       </c>
       <c r="H38" s="1">
         <f ca="1">VarexJ!G38</f>
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="K38" s="12">
         <f ca="1">'JPF-BDD'!F38</f>
@@ -30941,7 +30938,7 @@
       </c>
       <c r="L38" s="1">
         <f ca="1">VarexJ!F38</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -30965,7 +30962,7 @@
       </c>
       <c r="H39" s="1">
         <f ca="1">VarexJ!G39</f>
-        <v>195.5</v>
+        <v>283</v>
       </c>
       <c r="K39" s="12">
         <f ca="1">'JPF-BDD'!F39</f>
@@ -30973,7 +30970,7 @@
       </c>
       <c r="L39" s="1">
         <f ca="1">VarexJ!F39</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -30997,7 +30994,7 @@
       </c>
       <c r="H40" s="1">
         <f ca="1">VarexJ!G40</f>
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="K40" s="12">
         <f ca="1">'JPF-BDD'!F40</f>
@@ -31005,7 +31002,7 @@
       </c>
       <c r="L40" s="1">
         <f ca="1">VarexJ!F40</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -31029,7 +31026,7 @@
       </c>
       <c r="H41" s="1">
         <f ca="1">VarexJ!G41</f>
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="K41" s="12">
         <f ca="1">'JPF-BDD'!F41</f>
@@ -31037,7 +31034,7 @@
       </c>
       <c r="L41" s="1">
         <f ca="1">VarexJ!F41</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -31061,7 +31058,7 @@
       </c>
       <c r="H42" s="1">
         <f ca="1">VarexJ!G42</f>
-        <v>209.5</v>
+        <v>304</v>
       </c>
       <c r="K42" s="12">
         <f ca="1">'JPF-BDD'!F42</f>
@@ -31069,7 +31066,7 @@
       </c>
       <c r="L42" s="1">
         <f ca="1">VarexJ!F42</f>
-        <v>24</v>
+        <v>25.333333333333332</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -31093,7 +31090,7 @@
       </c>
       <c r="H43" s="1">
         <f ca="1">VarexJ!G43</f>
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="K43" s="12">
         <f ca="1">'JPF-BDD'!F43</f>
@@ -31101,7 +31098,7 @@
       </c>
       <c r="L43" s="1">
         <f ca="1">VarexJ!F43</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -31125,7 +31122,7 @@
       </c>
       <c r="H44" s="1">
         <f ca="1">VarexJ!G44</f>
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="K44" s="12">
         <f ca="1">'JPF-BDD'!F44</f>
@@ -31133,7 +31130,7 @@
       </c>
       <c r="L44" s="1">
         <f ca="1">VarexJ!F44</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -31157,7 +31154,7 @@
       </c>
       <c r="H45" s="1">
         <f ca="1">VarexJ!G45</f>
-        <v>223.5</v>
+        <v>325</v>
       </c>
       <c r="K45" s="12">
         <f ca="1">'JPF-BDD'!F45</f>
@@ -31165,7 +31162,7 @@
       </c>
       <c r="L45" s="1">
         <f ca="1">VarexJ!F45</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -31189,7 +31186,7 @@
       </c>
       <c r="H46" s="1">
         <f ca="1">VarexJ!G46</f>
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="K46" s="12">
         <f ca="1">'JPF-BDD'!F46</f>
@@ -31197,7 +31194,7 @@
       </c>
       <c r="L46" s="1">
         <f ca="1">VarexJ!F46</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -31221,7 +31218,7 @@
       </c>
       <c r="H47" s="1">
         <f ca="1">VarexJ!G47</f>
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="K47" s="12">
         <f ca="1">'JPF-BDD'!F47</f>
@@ -31229,7 +31226,7 @@
       </c>
       <c r="L47" s="1">
         <f ca="1">VarexJ!F47</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -31253,7 +31250,7 @@
       </c>
       <c r="H48" s="1">
         <f ca="1">VarexJ!G48</f>
-        <v>237.5</v>
+        <v>346</v>
       </c>
       <c r="K48" s="12">
         <f ca="1">'JPF-BDD'!F48</f>
@@ -31261,7 +31258,7 @@
       </c>
       <c r="L48" s="1">
         <f ca="1">VarexJ!F48</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -31285,7 +31282,7 @@
       </c>
       <c r="H49" s="1">
         <f ca="1">VarexJ!G49</f>
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="K49" s="12">
         <f ca="1">'JPF-BDD'!F49</f>
@@ -31293,7 +31290,7 @@
       </c>
       <c r="L49" s="1">
         <f ca="1">VarexJ!F49</f>
-        <v>24</v>
+        <v>27.333333333333332</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -31317,7 +31314,7 @@
       </c>
       <c r="H50" s="1">
         <f ca="1">VarexJ!G50</f>
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="K50" s="12">
         <f ca="1">'JPF-BDD'!F50</f>
@@ -31325,7 +31322,7 @@
       </c>
       <c r="L50" s="1">
         <f ca="1">VarexJ!F50</f>
-        <v>24</v>
+        <v>27.333333333333332</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -31349,7 +31346,7 @@
       </c>
       <c r="H51" s="1">
         <f ca="1">VarexJ!G51</f>
-        <v>251.5</v>
+        <v>367</v>
       </c>
       <c r="K51" s="12">
         <f ca="1">'JPF-BDD'!F51</f>
@@ -31357,7 +31354,7 @@
       </c>
       <c r="L51" s="1">
         <f ca="1">VarexJ!F51</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -31381,7 +31378,7 @@
       </c>
       <c r="H52" s="1">
         <f ca="1">VarexJ!G52</f>
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="K52" s="12">
         <f ca="1">'JPF-BDD'!F52</f>
@@ -31389,7 +31386,7 @@
       </c>
       <c r="L52" s="1">
         <f ca="1">VarexJ!F52</f>
-        <v>25</v>
+        <v>27.333333333333332</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -31413,7 +31410,7 @@
       </c>
       <c r="H53" s="1">
         <f ca="1">VarexJ!G53</f>
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="K53" s="12">
         <f ca="1">'JPF-BDD'!F53</f>
@@ -31421,7 +31418,7 @@
       </c>
       <c r="L53" s="1">
         <f ca="1">VarexJ!F53</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -31445,7 +31442,7 @@
       </c>
       <c r="H54" s="1">
         <f ca="1">VarexJ!G54</f>
-        <v>265.5</v>
+        <v>388</v>
       </c>
       <c r="K54" s="12">
         <f ca="1">'JPF-BDD'!F54</f>
@@ -31453,7 +31450,7 @@
       </c>
       <c r="L54" s="1">
         <f ca="1">VarexJ!F54</f>
-        <v>25</v>
+        <v>27.333333333333332</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -31477,7 +31474,7 @@
       </c>
       <c r="H55" s="1">
         <f ca="1">VarexJ!G55</f>
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="K55" s="12">
         <f ca="1">'JPF-BDD'!F55</f>
@@ -31485,7 +31482,7 @@
       </c>
       <c r="L55" s="1">
         <f ca="1">VarexJ!F55</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -31509,7 +31506,7 @@
       </c>
       <c r="H56" s="1">
         <f ca="1">VarexJ!G56</f>
-        <v>276</v>
+        <v>402</v>
       </c>
       <c r="K56" s="12">
         <f ca="1">'JPF-BDD'!F56</f>
@@ -31517,7 +31514,7 @@
       </c>
       <c r="L56" s="1">
         <f ca="1">VarexJ!F56</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -31541,7 +31538,7 @@
       </c>
       <c r="H57" s="1">
         <f ca="1">VarexJ!G57</f>
-        <v>279.5</v>
+        <v>409</v>
       </c>
       <c r="K57" s="12">
         <f ca="1">'JPF-BDD'!F57</f>
@@ -31549,7 +31546,7 @@
       </c>
       <c r="L57" s="1">
         <f ca="1">VarexJ!F57</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -31573,7 +31570,7 @@
       </c>
       <c r="H58" s="1">
         <f ca="1">VarexJ!G58</f>
-        <v>283</v>
+        <v>416</v>
       </c>
       <c r="K58" s="12">
         <f ca="1">'JPF-BDD'!F58</f>
@@ -31581,7 +31578,7 @@
       </c>
       <c r="L58" s="1">
         <f ca="1">VarexJ!F58</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -31605,7 +31602,7 @@
       </c>
       <c r="H59" s="1">
         <f ca="1">VarexJ!G59</f>
-        <v>290</v>
+        <v>423</v>
       </c>
       <c r="K59" s="12">
         <f ca="1">'JPF-BDD'!F59</f>
@@ -31613,7 +31610,7 @@
       </c>
       <c r="L59" s="1">
         <f ca="1">VarexJ!F59</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -31637,7 +31634,7 @@
       </c>
       <c r="H60" s="1">
         <f ca="1">VarexJ!G60</f>
-        <v>293.5</v>
+        <v>430</v>
       </c>
       <c r="K60" s="12">
         <f ca="1">'JPF-BDD'!F60</f>
@@ -31645,7 +31642,7 @@
       </c>
       <c r="L60" s="1">
         <f ca="1">VarexJ!F60</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -31669,7 +31666,7 @@
       </c>
       <c r="H61" s="1">
         <f ca="1">VarexJ!G61</f>
-        <v>297</v>
+        <v>437</v>
       </c>
       <c r="K61" s="12">
         <f ca="1">'JPF-BDD'!F61</f>
@@ -31677,7 +31674,7 @@
       </c>
       <c r="L61" s="1">
         <f ca="1">VarexJ!F61</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -31701,7 +31698,7 @@
       </c>
       <c r="H62" s="1">
         <f ca="1">VarexJ!G62</f>
-        <v>304</v>
+        <v>444</v>
       </c>
       <c r="K62" s="12">
         <f ca="1">'JPF-BDD'!F62</f>
@@ -31709,7 +31706,7 @@
       </c>
       <c r="L62" s="1">
         <f ca="1">VarexJ!F62</f>
-        <v>25.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -31733,7 +31730,7 @@
       </c>
       <c r="H63" s="1">
         <f ca="1">VarexJ!G63</f>
-        <v>307.5</v>
+        <v>451</v>
       </c>
       <c r="K63" s="12">
         <f ca="1">'JPF-BDD'!F63</f>
@@ -31741,7 +31738,7 @@
       </c>
       <c r="L63" s="1">
         <f ca="1">VarexJ!F63</f>
-        <v>25.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -31765,7 +31762,7 @@
       </c>
       <c r="H64" s="1">
         <f ca="1">VarexJ!G64</f>
-        <v>311</v>
+        <v>458</v>
       </c>
       <c r="K64" s="12">
         <f ca="1">'JPF-BDD'!F64</f>
@@ -31773,7 +31770,7 @@
       </c>
       <c r="L64" s="1">
         <f ca="1">VarexJ!F64</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -31797,7 +31794,7 @@
       </c>
       <c r="H65" s="1">
         <f ca="1">VarexJ!G65</f>
-        <v>318</v>
+        <v>465</v>
       </c>
       <c r="K65" s="12">
         <f ca="1">'JPF-BDD'!F65</f>
@@ -31805,7 +31802,7 @@
       </c>
       <c r="L65" s="1">
         <f ca="1">VarexJ!F65</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -31829,7 +31826,7 @@
       </c>
       <c r="H66" s="1">
         <f ca="1">VarexJ!G66</f>
-        <v>321.5</v>
+        <v>472</v>
       </c>
       <c r="K66" s="12">
         <f ca="1">'JPF-BDD'!F66</f>
@@ -31837,7 +31834,7 @@
       </c>
       <c r="L66" s="1">
         <f ca="1">VarexJ!F66</f>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -31861,7 +31858,7 @@
       </c>
       <c r="H67" s="1">
         <f ca="1">VarexJ!G67</f>
-        <v>325</v>
+        <v>479</v>
       </c>
       <c r="K67" s="12">
         <f ca="1">'JPF-BDD'!F67</f>
@@ -31869,7 +31866,7 @@
       </c>
       <c r="L67" s="1">
         <f ca="1">VarexJ!F67</f>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -31893,7 +31890,7 @@
       </c>
       <c r="H68" s="1">
         <f ca="1">VarexJ!G68</f>
-        <v>332</v>
+        <v>486</v>
       </c>
       <c r="K68" s="12">
         <f ca="1">'JPF-BDD'!F68</f>
@@ -31901,7 +31898,7 @@
       </c>
       <c r="L68" s="1">
         <f ca="1">VarexJ!F68</f>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -31925,7 +31922,7 @@
       </c>
       <c r="H69" s="1">
         <f ca="1">VarexJ!G69</f>
-        <v>335.5</v>
+        <v>493</v>
       </c>
       <c r="K69" s="12">
         <f ca="1">'JPF-BDD'!F69</f>
@@ -31933,7 +31930,7 @@
       </c>
       <c r="L69" s="1">
         <f ca="1">VarexJ!F69</f>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -31957,7 +31954,7 @@
       </c>
       <c r="H70" s="1">
         <f ca="1">VarexJ!G70</f>
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="K70" s="12">
         <f ca="1">'JPF-BDD'!F70</f>
@@ -31965,7 +31962,7 @@
       </c>
       <c r="L70" s="1">
         <f ca="1">VarexJ!F70</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -31989,7 +31986,7 @@
       </c>
       <c r="H71" s="1">
         <f ca="1">VarexJ!G71</f>
-        <v>346</v>
+        <v>507</v>
       </c>
       <c r="K71" s="12">
         <f ca="1">'JPF-BDD'!F71</f>
@@ -31997,7 +31994,7 @@
       </c>
       <c r="L71" s="1">
         <f ca="1">VarexJ!F71</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -32021,7 +32018,7 @@
       </c>
       <c r="H72" s="1">
         <f ca="1">VarexJ!G72</f>
-        <v>349.5</v>
+        <v>514</v>
       </c>
       <c r="K72" s="12">
         <f ca="1">'JPF-BDD'!F72</f>
@@ -32029,7 +32026,7 @@
       </c>
       <c r="L72" s="1">
         <f ca="1">VarexJ!F72</f>
-        <v>26.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -32053,7 +32050,7 @@
       </c>
       <c r="H73" s="1">
         <f ca="1">VarexJ!G73</f>
-        <v>353</v>
+        <v>521</v>
       </c>
       <c r="K73" s="12">
         <f ca="1">'JPF-BDD'!F73</f>
@@ -32061,7 +32058,7 @@
       </c>
       <c r="L73" s="1">
         <f ca="1">VarexJ!F73</f>
-        <v>27.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -32085,7 +32082,7 @@
       </c>
       <c r="H74" s="1">
         <f ca="1">VarexJ!G74</f>
-        <v>360</v>
+        <v>528</v>
       </c>
       <c r="K74" s="12">
         <f ca="1">'JPF-BDD'!F74</f>
@@ -32093,7 +32090,7 @@
       </c>
       <c r="L74" s="1">
         <f ca="1">VarexJ!F74</f>
-        <v>27.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -32117,7 +32114,7 @@
       </c>
       <c r="H75" s="1">
         <f ca="1">VarexJ!G75</f>
-        <v>363.5</v>
+        <v>535</v>
       </c>
       <c r="K75" s="12">
         <f ca="1">'JPF-BDD'!F75</f>
@@ -32125,7 +32122,7 @@
       </c>
       <c r="L75" s="1">
         <f ca="1">VarexJ!F75</f>
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -32149,7 +32146,7 @@
       </c>
       <c r="H76" s="1">
         <f ca="1">VarexJ!G76</f>
-        <v>367</v>
+        <v>542</v>
       </c>
       <c r="K76" s="12">
         <f ca="1">'JPF-BDD'!F76</f>
@@ -32157,7 +32154,7 @@
       </c>
       <c r="L76" s="1">
         <f ca="1">VarexJ!F76</f>
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -32181,7 +32178,7 @@
       </c>
       <c r="H77" s="1">
         <f ca="1">VarexJ!G77</f>
-        <v>374</v>
+        <v>549</v>
       </c>
       <c r="K77" s="12">
         <f ca="1">'JPF-BDD'!F77</f>
@@ -32189,7 +32186,7 @@
       </c>
       <c r="L77" s="1">
         <f ca="1">VarexJ!F77</f>
-        <v>27.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -32213,7 +32210,7 @@
       </c>
       <c r="H78" s="1">
         <f ca="1">VarexJ!G78</f>
-        <v>377.5</v>
+        <v>556</v>
       </c>
       <c r="K78" s="12">
         <f ca="1">'JPF-BDD'!F78</f>
@@ -32221,7 +32218,7 @@
       </c>
       <c r="L78" s="1">
         <f ca="1">VarexJ!F78</f>
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -32245,7 +32242,7 @@
       </c>
       <c r="H79" s="1">
         <f ca="1">VarexJ!G79</f>
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="K79" s="12">
         <f ca="1">'JPF-BDD'!F79</f>
@@ -32253,7 +32250,7 @@
       </c>
       <c r="L79" s="1">
         <f ca="1">VarexJ!F79</f>
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -32277,7 +32274,7 @@
       </c>
       <c r="H80" s="1">
         <f ca="1">VarexJ!G80</f>
-        <v>388</v>
+        <v>570</v>
       </c>
       <c r="K80" s="12">
         <f ca="1">'JPF-BDD'!F80</f>
@@ -32285,7 +32282,7 @@
       </c>
       <c r="L80" s="1">
         <f ca="1">VarexJ!F80</f>
-        <v>27.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -32309,7 +32306,7 @@
       </c>
       <c r="H81" s="1">
         <f ca="1">VarexJ!G81</f>
-        <v>391.5</v>
+        <v>577</v>
       </c>
       <c r="K81" s="12">
         <f ca="1">'JPF-BDD'!F81</f>
@@ -32317,7 +32314,7 @@
       </c>
       <c r="L81" s="1">
         <f ca="1">VarexJ!F81</f>
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -32341,7 +32338,7 @@
       </c>
       <c r="H82" s="1">
         <f ca="1">VarexJ!G82</f>
-        <v>395</v>
+        <v>584</v>
       </c>
       <c r="K82" s="12">
         <f ca="1">'JPF-BDD'!F82</f>
@@ -32349,7 +32346,7 @@
       </c>
       <c r="L82" s="1">
         <f ca="1">VarexJ!F82</f>
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -32373,7 +32370,7 @@
       </c>
       <c r="H83" s="1">
         <f ca="1">VarexJ!G83</f>
-        <v>402</v>
+        <v>591</v>
       </c>
       <c r="K83" s="12">
         <f ca="1">'JPF-BDD'!F83</f>
@@ -32381,7 +32378,7 @@
       </c>
       <c r="L83" s="1">
         <f ca="1">VarexJ!F83</f>
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -32405,7 +32402,7 @@
       </c>
       <c r="H84" s="1">
         <f ca="1">VarexJ!G84</f>
-        <v>405.5</v>
+        <v>598</v>
       </c>
       <c r="K84" s="12">
         <f ca="1">'JPF-BDD'!F84</f>
@@ -32413,7 +32410,7 @@
       </c>
       <c r="L84" s="1">
         <f ca="1">VarexJ!F84</f>
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -32437,7 +32434,7 @@
       </c>
       <c r="H85" s="1">
         <f ca="1">VarexJ!G85</f>
-        <v>409</v>
+        <v>605</v>
       </c>
       <c r="K85" s="12">
         <f ca="1">'JPF-BDD'!F85</f>
@@ -32445,7 +32442,7 @@
       </c>
       <c r="L85" s="1">
         <f ca="1">VarexJ!F85</f>
-        <v>29</v>
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -32469,7 +32466,7 @@
       </c>
       <c r="H86" s="1">
         <f ca="1">VarexJ!G86</f>
-        <v>416</v>
+        <v>612</v>
       </c>
       <c r="K86" s="12">
         <f ca="1">'JPF-BDD'!F86</f>
@@ -32477,7 +32474,7 @@
       </c>
       <c r="L86" s="1">
         <f ca="1">VarexJ!F86</f>
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -32501,7 +32498,7 @@
       </c>
       <c r="H87" s="1">
         <f ca="1">VarexJ!G87</f>
-        <v>419.5</v>
+        <v>619</v>
       </c>
       <c r="K87" s="12">
         <f ca="1">'JPF-BDD'!F87</f>
@@ -32509,7 +32506,7 @@
       </c>
       <c r="L87" s="1">
         <f ca="1">VarexJ!F87</f>
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -32533,7 +32530,7 @@
       </c>
       <c r="H88" s="1">
         <f ca="1">VarexJ!G88</f>
-        <v>423</v>
+        <v>626</v>
       </c>
       <c r="K88" s="12">
         <f ca="1">'JPF-BDD'!F88</f>
@@ -32541,7 +32538,7 @@
       </c>
       <c r="L88" s="1">
         <f ca="1">VarexJ!F88</f>
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -32565,7 +32562,7 @@
       </c>
       <c r="H89" s="1">
         <f ca="1">VarexJ!G89</f>
-        <v>430</v>
+        <v>633</v>
       </c>
       <c r="K89" s="12">
         <f ca="1">'JPF-BDD'!F89</f>
@@ -32573,7 +32570,7 @@
       </c>
       <c r="L89" s="1">
         <f ca="1">VarexJ!F89</f>
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -32597,7 +32594,7 @@
       </c>
       <c r="H90" s="1">
         <f ca="1">VarexJ!G90</f>
-        <v>433.5</v>
+        <v>640</v>
       </c>
       <c r="K90" s="12">
         <f ca="1">'JPF-BDD'!F90</f>
@@ -32605,7 +32602,7 @@
       </c>
       <c r="L90" s="1">
         <f ca="1">VarexJ!F90</f>
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -32629,7 +32626,7 @@
       </c>
       <c r="H91" s="1">
         <f ca="1">VarexJ!G91</f>
-        <v>437</v>
+        <v>647</v>
       </c>
       <c r="K91" s="12">
         <f ca="1">'JPF-BDD'!F91</f>
@@ -32637,7 +32634,7 @@
       </c>
       <c r="L91" s="1">
         <f ca="1">VarexJ!F91</f>
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -32661,7 +32658,7 @@
       </c>
       <c r="H92" s="1">
         <f ca="1">VarexJ!G92</f>
-        <v>444</v>
+        <v>654</v>
       </c>
       <c r="K92" s="12">
         <f ca="1">'JPF-BDD'!F92</f>
@@ -32669,7 +32666,7 @@
       </c>
       <c r="L92" s="1">
         <f ca="1">VarexJ!F92</f>
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -32693,7 +32690,7 @@
       </c>
       <c r="H93" s="1">
         <f ca="1">VarexJ!G93</f>
-        <v>447.5</v>
+        <v>661</v>
       </c>
       <c r="K93" s="12">
         <f ca="1">'JPF-BDD'!F93</f>
@@ -32701,7 +32698,7 @@
       </c>
       <c r="L93" s="1">
         <f ca="1">VarexJ!F93</f>
-        <v>30</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -32725,7 +32722,7 @@
       </c>
       <c r="H94" s="1">
         <f ca="1">VarexJ!G94</f>
-        <v>451</v>
+        <v>668</v>
       </c>
       <c r="K94" s="12">
         <f ca="1">'JPF-BDD'!F94</f>
@@ -32733,7 +32730,7 @@
       </c>
       <c r="L94" s="1">
         <f ca="1">VarexJ!F94</f>
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -32757,7 +32754,7 @@
       </c>
       <c r="H95" s="1">
         <f ca="1">VarexJ!G95</f>
-        <v>458</v>
+        <v>675</v>
       </c>
       <c r="K95" s="12">
         <f ca="1">'JPF-BDD'!F95</f>
@@ -32765,7 +32762,7 @@
       </c>
       <c r="L95" s="1">
         <f ca="1">VarexJ!F95</f>
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -32789,7 +32786,7 @@
       </c>
       <c r="H96" s="1">
         <f ca="1">VarexJ!G96</f>
-        <v>461.5</v>
+        <v>682</v>
       </c>
       <c r="K96" s="12">
         <f ca="1">'JPF-BDD'!F96</f>
@@ -32797,7 +32794,7 @@
       </c>
       <c r="L96" s="1">
         <f ca="1">VarexJ!F96</f>
-        <v>30.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -32821,7 +32818,7 @@
       </c>
       <c r="H97" s="1">
         <f ca="1">VarexJ!G97</f>
-        <v>465</v>
+        <v>689</v>
       </c>
       <c r="K97" s="12">
         <f ca="1">'JPF-BDD'!F97</f>
@@ -32829,7 +32826,7 @@
       </c>
       <c r="L97" s="1">
         <f ca="1">VarexJ!F97</f>
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -32853,7 +32850,7 @@
       </c>
       <c r="H98" s="1">
         <f ca="1">VarexJ!G98</f>
-        <v>472</v>
+        <v>696</v>
       </c>
       <c r="K98" s="12">
         <f ca="1">'JPF-BDD'!F98</f>
@@ -32861,7 +32858,7 @@
       </c>
       <c r="L98" s="1">
         <f ca="1">VarexJ!F98</f>
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -32885,7 +32882,7 @@
       </c>
       <c r="H99" s="1">
         <f ca="1">VarexJ!G99</f>
-        <v>475.5</v>
+        <v>703</v>
       </c>
       <c r="K99" s="12">
         <f ca="1">'JPF-BDD'!F99</f>
@@ -32893,7 +32890,7 @@
       </c>
       <c r="L99" s="1">
         <f ca="1">VarexJ!F99</f>
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -32917,7 +32914,7 @@
       </c>
       <c r="H100" s="1">
         <f ca="1">VarexJ!G100</f>
-        <v>479</v>
+        <v>710</v>
       </c>
       <c r="K100" s="12">
         <f ca="1">'JPF-BDD'!F100</f>
@@ -32925,7 +32922,7 @@
       </c>
       <c r="L100" s="1">
         <f ca="1">VarexJ!F100</f>
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -32949,7 +32946,7 @@
       </c>
       <c r="H101" s="1">
         <f ca="1">VarexJ!G101</f>
-        <v>486</v>
+        <v>717</v>
       </c>
       <c r="K101" s="12">
         <f ca="1">'JPF-BDD'!F101</f>
@@ -32957,7 +32954,7 @@
       </c>
       <c r="L101" s="1">
         <f ca="1">VarexJ!F101</f>
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -32981,7 +32978,7 @@
       </c>
       <c r="H102" s="1">
         <f ca="1">VarexJ!G102</f>
-        <v>489.5</v>
+        <v>724</v>
       </c>
       <c r="K102" s="12">
         <f ca="1">'JPF-BDD'!F102</f>
@@ -32989,7 +32986,7 @@
       </c>
       <c r="L102" s="1">
         <f ca="1">VarexJ!F102</f>
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">

--- a/VarexJSmallScaleEvaluation/Results/Inc/ALLINC.xlsx
+++ b/VarexJSmallScaleEvaluation/Results/Inc/ALLINC.xlsx
@@ -813,8 +813,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94741504"/>
-        <c:axId val="86616320"/>
+        <c:axId val="114861056"/>
+        <c:axId val="75606272"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -917,11 +917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94742528"/>
-        <c:axId val="86616896"/>
+        <c:axId val="114862080"/>
+        <c:axId val="75606848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94741504"/>
+        <c:axId val="114861056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86616320"/>
+        <c:crossAx val="75606272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86616320"/>
+        <c:axId val="75606272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +949,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94741504"/>
+        <c:crossAx val="114861056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86616896"/>
+        <c:axId val="75606848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +964,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94742528"/>
+        <c:crossAx val="114862080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94742528"/>
+        <c:axId val="114862080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86616896"/>
+        <c:crossAx val="75606848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,8 +1120,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89242112"/>
-        <c:axId val="86618624"/>
+        <c:axId val="78297600"/>
+        <c:axId val="75608576"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1224,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94744064"/>
-        <c:axId val="86619200"/>
+        <c:axId val="114863616"/>
+        <c:axId val="75609152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89242112"/>
+        <c:axId val="78297600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86618624"/>
+        <c:crossAx val="75608576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86618624"/>
+        <c:axId val="75608576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,12 +1256,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89242112"/>
+        <c:crossAx val="78297600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86619200"/>
+        <c:axId val="75609152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,12 +1271,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94744064"/>
+        <c:crossAx val="114863616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94744064"/>
+        <c:axId val="114863616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86619200"/>
+        <c:crossAx val="75609152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,8 +1670,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94640128"/>
-        <c:axId val="86620928"/>
+        <c:axId val="114567168"/>
+        <c:axId val="75610880"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2017,11 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94638080"/>
-        <c:axId val="86621504"/>
+        <c:axId val="114565120"/>
+        <c:axId val="75611456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94640128"/>
+        <c:axId val="114567168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86620928"/>
+        <c:crossAx val="75610880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2038,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86620928"/>
+        <c:axId val="75610880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,12 +2049,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94640128"/>
+        <c:crossAx val="114567168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86621504"/>
+        <c:axId val="75611456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,12 +2064,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94638080"/>
+        <c:crossAx val="114565120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94638080"/>
+        <c:axId val="114565120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86621504"/>
+        <c:crossAx val="75611456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4381,11 +4381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95475712"/>
-        <c:axId val="95306880"/>
+        <c:axId val="115402752"/>
+        <c:axId val="114771072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95475712"/>
+        <c:axId val="115402752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,7 +4414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95306880"/>
+        <c:crossAx val="114771072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4424,7 +4424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95306880"/>
+        <c:axId val="114771072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -4455,7 +4455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95475712"/>
+        <c:crossAx val="115402752"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6324,11 +6324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95477248"/>
-        <c:axId val="95309184"/>
+        <c:axId val="115404288"/>
+        <c:axId val="114773376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95477248"/>
+        <c:axId val="115404288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6357,7 +6357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95309184"/>
+        <c:crossAx val="114773376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6367,7 +6367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95309184"/>
+        <c:axId val="114773376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100000"/>
@@ -6398,7 +6398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95477248"/>
+        <c:crossAx val="115404288"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8388,11 +8388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89242624"/>
-        <c:axId val="95311488"/>
+        <c:axId val="78298112"/>
+        <c:axId val="114775680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89242624"/>
+        <c:axId val="78298112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8421,7 +8421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95311488"/>
+        <c:crossAx val="114775680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8431,7 +8431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95311488"/>
+        <c:axId val="114775680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8461,7 +8461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89242624"/>
+        <c:crossAx val="78298112"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8484,6 +8484,8935 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>190.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>317.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>429.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>836.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1239.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2339.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6230.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11386.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22151.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42825.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85694.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>167598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>371.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>382.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>402.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>413.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>429.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>432.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>437.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>448.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>463.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>481.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>488.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>493.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>511.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>523.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>532.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>556.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>572.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>590.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>610.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>625.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>644.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>669.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>705.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>747.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>780.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>787.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>847.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>829.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>893.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>927.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>943.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1002.3333333333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1032.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1047.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1061.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1075.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1091.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1113.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1118.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1141.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1219.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1217.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1228.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1263.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1298.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1320.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1328.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1341.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1356.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1547.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1536.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1589.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1604.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1631.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2068.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2054.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2091.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2140.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2106.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>348.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>456.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>990.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1813.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3109.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4856.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8409.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15703.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29373.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60355.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>122948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>413.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1668.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3383.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14080</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29102.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58617.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>118865.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>241809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>680.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>663.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>664.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>671.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>665.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>668.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>670.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>668.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>667.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>673.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>674.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>678.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>678.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>686.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>689.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>711.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>697.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>702.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>713.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>718.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>727.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>738.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>749.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>767.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>778.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>875.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>927.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>979.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1033.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1149.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1175.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1193.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1187.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1209.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1183.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1178.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1223.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1223.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1195.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1222.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1222.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1206.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1201.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1205.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1214.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1294.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1302.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1271.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1287.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1312.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1376.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1375.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1380.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1392.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1462.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1427.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1401.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1419.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1358.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1426.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1570.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1543.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1580.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1596.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1589.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1572.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1611.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1591.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1724.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1790.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1764.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1809.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1760.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1786.3333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>190.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>317.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>429.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>836.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1239.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2339.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6230.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11386.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22151.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42825.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85694.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>167598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>371.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>382.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>402.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>413.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>429.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>432.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>437.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>448.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>463.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>481.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>488.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>493.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>511.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>523.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>532.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>556.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>572.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>590.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>610.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>625.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>644.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>669.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>705.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>747.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>780.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>787.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>847.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>829.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>893.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>927.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>943.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1002.3333333333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1032.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1047.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1061.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1075.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1091.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1113.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1118.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1141.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1219.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1217.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1228.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1263.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1298.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1320.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1328.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1341.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1356.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1547.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1536.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1589.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1604.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1631.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2068.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2054.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2091.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2140.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2106.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>348.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>456.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>990.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1813.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3109.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4856.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8409.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15703.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29373.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60355.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>122948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>413.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1668.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3383.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14080</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29102.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58617.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>118865.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>241809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>680.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>663.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>664.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>671.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>665.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>668.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>670.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>668.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>667.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>673.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>674.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>678.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>678.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>686.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>689.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>711.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>697.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>702.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>713.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>718.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>727.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>738.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>749.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>767.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>778.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>875.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>927.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>979.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1033.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1149.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1175.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1193.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1187.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1209.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1183.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1178.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1223.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1223.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1195.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1222.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1222.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1206.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1201.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1205.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1214.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1294.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1302.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1271.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1287.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1312.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1376.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1375.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1380.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1392.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1462.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1427.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1401.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1419.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1358.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1426.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1570.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1543.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1580.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1596.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1589.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1572.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1611.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1591.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1724.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1790.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1764.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1809.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1760.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1786.3333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="115607552"/>
+        <c:axId val="116211712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115607552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116211712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116211712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115607552"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3580</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57340</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114684</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>229372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>458748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>917500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1835004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3670012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7340028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14680060</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29360124</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58720252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2414</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2977</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3934</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5420</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5829</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6253</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7615</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8099</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8598</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9112</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9641</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10744</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11318</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11907</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12511</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13130</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13764</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14413</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15077</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15756</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17883</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18622</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19376</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20145</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20929</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21728</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22542</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23371</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24215</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25074</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25948</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26837</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27741</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28660</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29594</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30543</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31507</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32486</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33480</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34489</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35513</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36552</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37606</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38675</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39759</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40858</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41972</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45404</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46578</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>47767</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>48971</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>50190</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51424</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>52673</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>53937</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55216</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>56510</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>57819</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>59143</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>60482</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>61836</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>63205</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>64589</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>65988</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>67402</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>68831</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>70275</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71734</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>73208</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>74697</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>76201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$J$2:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32776</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65544</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131080</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>524296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1048584</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2097160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4194312</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8388616</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16777224</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33554440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="115608064"/>
+        <c:axId val="116214592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115608064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116214592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116214592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Instructions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115608064"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$M$2:$M$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>118.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$K$2:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>98.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>116.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>124.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>160.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>163.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>163.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>163.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>163.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>165.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>178.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>192.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>204.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>218.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>233.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>247.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>261.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>275.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>290.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>307.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>322.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>329.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>329.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>329.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>329.66666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$N$2:$N$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$O$2:$O$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$L$2:$L$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>74.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="115609088"/>
+        <c:axId val="116216896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115609088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116216896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116216896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory Consumptions in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115609088"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50136979166666662"/>
+          <c:y val="3.0074166666666669E-2"/>
+          <c:w val="0.45453298611111109"/>
+          <c:h val="0.32954583333333332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8694,6 +17623,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>584475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>460650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>241575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -28961,8 +37986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P694"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
